--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lgi3-Adam22.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lgi3-Adam22.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.271846125105469</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H2">
-        <v>0.271846125105469</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I2">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962827</v>
       </c>
       <c r="J2">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.656379136518901</v>
+        <v>0.8328803333333332</v>
       </c>
       <c r="N2">
-        <v>0.656379136518901</v>
+        <v>2.498641</v>
       </c>
       <c r="O2">
-        <v>0.03136981102788425</v>
+        <v>0.03917234793046614</v>
       </c>
       <c r="P2">
-        <v>0.03136981102788425</v>
+        <v>0.03917234793046613</v>
       </c>
       <c r="Q2">
-        <v>0.1784341248627369</v>
+        <v>0.2494432178048889</v>
       </c>
       <c r="R2">
-        <v>0.1784341248627369</v>
+        <v>2.244988960244</v>
       </c>
       <c r="S2">
-        <v>0.01551715689540144</v>
+        <v>0.01954485386391295</v>
       </c>
       <c r="T2">
-        <v>0.01551715689540144</v>
+        <v>0.01954485386391295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.271846125105469</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H3">
-        <v>0.271846125105469</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I3">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962827</v>
       </c>
       <c r="J3">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.83609450466857</v>
+        <v>4.873409</v>
       </c>
       <c r="N3">
-        <v>4.83609450466857</v>
+        <v>14.620227</v>
       </c>
       <c r="O3">
-        <v>0.2311276551674399</v>
+        <v>0.2292080450398417</v>
       </c>
       <c r="P3">
-        <v>0.2311276551674399</v>
+        <v>0.2292080450398417</v>
       </c>
       <c r="Q3">
-        <v>1.314673551738003</v>
+        <v>1.459560003985333</v>
       </c>
       <c r="R3">
-        <v>1.314673551738003</v>
+        <v>13.136040035868</v>
       </c>
       <c r="S3">
-        <v>0.1143278831010955</v>
+        <v>0.1143622473865731</v>
       </c>
       <c r="T3">
-        <v>0.1143278831010955</v>
+        <v>0.1143622473865731</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.271846125105469</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H4">
-        <v>0.271846125105469</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I4">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962827</v>
       </c>
       <c r="J4">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.4314374380171</v>
+        <v>15.55565633333333</v>
       </c>
       <c r="N4">
-        <v>15.4314374380171</v>
+        <v>46.66696899999999</v>
       </c>
       <c r="O4">
-        <v>0.7375025338046758</v>
+        <v>0.7316196070296923</v>
       </c>
       <c r="P4">
-        <v>0.7375025338046758</v>
+        <v>0.7316196070296922</v>
       </c>
       <c r="Q4">
-        <v>4.194976472332415</v>
+        <v>4.658836108332888</v>
       </c>
       <c r="R4">
-        <v>4.194976472332415</v>
+        <v>41.929524974996</v>
       </c>
       <c r="S4">
-        <v>0.3648075060965741</v>
+        <v>0.3650380704457967</v>
       </c>
       <c r="T4">
-        <v>0.3648075060965741</v>
+        <v>0.3650380704457967</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2777237239787</v>
+        <v>0.300761</v>
       </c>
       <c r="H5">
-        <v>0.2777237239787</v>
+        <v>0.9022829999999999</v>
       </c>
       <c r="I5">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J5">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.656379136518901</v>
+        <v>0.8328803333333332</v>
       </c>
       <c r="N5">
-        <v>0.656379136518901</v>
+        <v>2.498641</v>
       </c>
       <c r="O5">
-        <v>0.03136981102788425</v>
+        <v>0.03917234793046614</v>
       </c>
       <c r="P5">
-        <v>0.03136981102788425</v>
+        <v>0.03917234793046613</v>
       </c>
       <c r="Q5">
-        <v>0.1822920581359527</v>
+        <v>0.2504979219336667</v>
       </c>
       <c r="R5">
-        <v>0.1822920581359527</v>
+        <v>2.254481297403</v>
       </c>
       <c r="S5">
-        <v>0.01585265413248281</v>
+        <v>0.01962749406655318</v>
       </c>
       <c r="T5">
-        <v>0.01585265413248281</v>
+        <v>0.01962749406655318</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2777237239787</v>
+        <v>0.300761</v>
       </c>
       <c r="H6">
-        <v>0.2777237239787</v>
+        <v>0.9022829999999999</v>
       </c>
       <c r="I6">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J6">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.83609450466857</v>
+        <v>4.873409</v>
       </c>
       <c r="N6">
-        <v>4.83609450466857</v>
+        <v>14.620227</v>
       </c>
       <c r="O6">
-        <v>0.2311276551674399</v>
+        <v>0.2292080450398417</v>
       </c>
       <c r="P6">
-        <v>0.2311276551674399</v>
+        <v>0.2292080450398417</v>
       </c>
       <c r="Q6">
-        <v>1.343098175349482</v>
+        <v>1.465731364249</v>
       </c>
       <c r="R6">
-        <v>1.343098175349482</v>
+        <v>13.191582278241</v>
       </c>
       <c r="S6">
-        <v>0.1167997720663444</v>
+        <v>0.1148457976532686</v>
       </c>
       <c r="T6">
-        <v>0.1167997720663444</v>
+        <v>0.1148457976532686</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2777237239787</v>
+        <v>0.300761</v>
       </c>
       <c r="H7">
-        <v>0.2777237239787</v>
+        <v>0.9022829999999999</v>
       </c>
       <c r="I7">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J7">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.4314374380171</v>
+        <v>15.55565633333333</v>
       </c>
       <c r="N7">
-        <v>15.4314374380171</v>
+        <v>46.66696899999999</v>
       </c>
       <c r="O7">
-        <v>0.7375025338046758</v>
+        <v>0.7316196070296923</v>
       </c>
       <c r="P7">
-        <v>0.7375025338046758</v>
+        <v>0.7316196070296922</v>
       </c>
       <c r="Q7">
-        <v>4.285676271630439</v>
+        <v>4.678534754469666</v>
       </c>
       <c r="R7">
-        <v>4.285676271630439</v>
+        <v>42.10681279022699</v>
       </c>
       <c r="S7">
-        <v>0.3726950277081018</v>
+        <v>0.3665815365838955</v>
       </c>
       <c r="T7">
-        <v>0.3726950277081018</v>
+        <v>0.3665815365838955</v>
       </c>
     </row>
   </sheetData>
